--- a/Images/2.xlsx
+++ b/Images/2.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$F$8:$F$9</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ООО ПРОВЭЛД  тел:(812)603-45-33</t>
   </si>
   <si>
-    <t>КП №  для  от 02.11.2023</t>
+    <t>КП № 0344 для Инженерные решения от 03.11.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
@@ -31,7 +31,7 @@
     <t>Для изготовления изделия</t>
   </si>
   <si>
-    <t>Изделие</t>
+    <t>Корпус</t>
   </si>
   <si>
     <t>понадобятся следующие детали и работы:</t>
@@ -55,14 +55,17 @@
     <t>Стоимость, руб</t>
   </si>
   <si>
-    <t>det1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покупка (Швеллер типа П)
-Окраска (цвет - )
+    <t>Заготовки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазерная резка
+Лазерная резка
 </t>
   </si>
   <si>
+    <t>Доставка</t>
+  </si>
+  <si>
     <t>Стоимость изделия:</t>
   </si>
   <si>
@@ -75,13 +78,13 @@
     <t>Всего за 1 шт:</t>
   </si>
   <si>
-    <t>3007,61</t>
+    <t>339503</t>
   </si>
   <si>
     <t>Срок изготовления:</t>
   </si>
   <si>
-    <t xml:space="preserve"> раб/дней.</t>
+    <t>25-30 раб/дней.</t>
   </si>
   <si>
     <t>Условия оплаты:</t>
@@ -93,13 +96,13 @@
     <t>Порядок отгрузки:</t>
   </si>
   <si>
-    <t>Самовывоз со склада Исполнителя по адресу: Ленинградская область, Всеволожский район, Колтушское сельское поселение, деревня Мяглово, ул. Дорожная, уч. 4Б.</t>
+    <t>Доставка силами Исполнителя по адресу Заказчика.</t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t>Сергеев Алексей</t>
+    <t>Серых Михаил</t>
   </si>
   <si>
     <t>1.0.0</t>
@@ -306,7 +309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyFill="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyFill="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right"/>
@@ -380,9 +383,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="top" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment horizontal="right" vertical="top"/>
@@ -746,7 +746,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" zoomScale="100" view="normal"/>
   </sheetViews>
@@ -754,7 +754,7 @@
   <cols>
     <col min="1" max="1" width="2.421875" customWidth="1"/>
     <col min="2" max="2" width="18.8515625" customWidth="1"/>
-    <col min="3" max="3" width="16.57421875" customWidth="1"/>
+    <col min="3" max="3" width="48.421875" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.00390625" customWidth="1"/>
     <col min="6" max="6" width="14.8515625" customWidth="1"/>
@@ -846,99 +846,115 @@
         <v>1</v>
       </c>
       <c r="E8" s="15">
-        <v>3007.60986328125</v>
+        <v>334503</v>
       </c>
       <c r="F8" s="16">
-        <v>3007.60986328125</v>
+        <v>334503</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21">
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5000</v>
+      </c>
+      <c r="F9" s="16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21">
         <f ca="1">SUM(totalOrder)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="11">
+      <c r="B11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="C11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22" t="s">
+      <c r="F11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="22"/>
     </row>
     <row r="12">
       <c r="A12" s="22"/>
       <c r="B12" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="22"/>
     </row>
-    <row r="13" ht="68.5" customHeight="true">
+    <row r="13">
       <c r="A13" s="22"/>
       <c r="B13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
     </row>
     <row r="14">
       <c r="A14" s="22"/>
       <c r="B14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>26</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="22"/>
-      <c r="F14" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="F14" s="22"/>
     </row>
     <row r="15">
       <c r="A15" s="22"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="D15" s="22"/>
       <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A3:F3"/>
@@ -950,10 +966,9 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup orientation="portrait" scale="100" paperSize="9" fitToWidth="1" fitToHeight="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/Images/2.xlsx
+++ b/Images/2.xlsx
@@ -8,42 +8,39 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$F$7:$F$8</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$H$7:$H$11</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">ООО ПРОВЭЛД  тел:(812)603-45-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КП №  для  от 12.11.2023</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t xml:space="preserve">ООО ЛАЗЕРФЛЕКС  тел:(812)509-60-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КП №  для  от 13.11.2023</t>
   </si>
   <si>
     <t>Данный расчет действителен в течении 2-х банковских дней</t>
   </si>
   <si>
-    <t>Для изготовления изделия</t>
-  </si>
-  <si>
-    <t>Изделие</t>
-  </si>
-  <si>
-    <t>понадобятся следующие детали и работы:</t>
+    <t>Материал</t>
+  </si>
+  <si>
+    <t>Толщина</t>
+  </si>
+  <si>
+    <t>Работы</t>
+  </si>
+  <si>
+    <t>Точность</t>
   </si>
   <si>
     <t>Наименование</t>
   </si>
   <si>
-    <t>Работы</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Кол-во, шт</t>
   </si>
   <si>
@@ -53,12 +50,21 @@
     <t>Стоимость, руб</t>
   </si>
   <si>
-    <t>Title</t>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Destiny</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
@@ -68,7 +74,34 @@
     <t>Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Лист металла: Лазерная резка </t>
+    <t>Way</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>цинк</t>
+  </si>
+  <si>
+    <t>Л</t>
+  </si>
+  <si>
+    <t>H14/h14 +-IT 14/2</t>
+  </si>
+  <si>
+    <t>240 мм заглушка квадратная цинк s1 n25</t>
+  </si>
+  <si>
+    <t>Л + С</t>
+  </si>
+  <si>
+    <t>200 мм заглушка квадратная цинк s1 n10</t>
+  </si>
+  <si>
+    <t>290 мм заглушка квадратная цинк s1 n5</t>
+  </si>
+  <si>
+    <t>Provent VLV монтажная пластина заслонки цинк s1 n10</t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -101,25 +134,23 @@
     <t xml:space="preserve">Расшифровка работ: </t>
   </si>
   <si>
+    <t xml:space="preserve">Л - Лазер С - Сварка </t>
+  </si>
+  <si>
+    <t>Ваш менеджер:</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Ваш менеджер:</t>
-  </si>
-  <si>
-    <t>Сергеев Алексей</t>
-  </si>
-  <si>
-    <t>1.0.0</t>
+    <t>версия: 1.0.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -240,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -251,42 +282,50 @@
     <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" borderId="10" applyBorder="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" borderId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" borderId="11" applyBorder="1"/>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,7 +359,7 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="286512" cy="286512"/>
+    <xdr:ext cx="2438400" cy="447675"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" descr="" name="A1"/>
@@ -351,18 +390,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.53816032409668" customWidth="1"/>
-    <col min="2" max="2" width="39.953426361083984" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.806575775146484" customWidth="1"/>
+    <col min="5" max="5" width="51.22453689575195" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.477986335754395" customWidth="1"/>
+    <col min="9" max="9" hidden="1" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" hidden="1" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1">
@@ -371,7 +414,7 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1">
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -380,48 +423,43 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>11</v>
-      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
@@ -429,108 +467,234 @@
       <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4">
+        <v>25</v>
+      </c>
+      <c r="G8" s="19">
+        <v>26.760000228881836</v>
+      </c>
+      <c r="H8" s="19">
+        <v>669</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1127.3499755859375</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.4509999752044678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="17">
-        <v>66000</v>
-      </c>
-      <c r="F8" s="18">
-        <v>66000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="20">
+      <c r="C9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4">
+        <v>10</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1212.9599609375</v>
+      </c>
+      <c r="H9" s="19">
+        <v>12129.599609375</v>
+      </c>
+      <c r="I9" s="4">
+        <v>967.3499755859375</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.31199997663497925</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4">
+        <v>8</v>
+      </c>
+      <c r="G10" s="19">
+        <v>31.5</v>
+      </c>
+      <c r="H10" s="19">
+        <v>252</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1327.3499755859375</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.6589999794960022</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8">
+        <v>10</v>
+      </c>
+      <c r="G11" s="20">
+        <v>1206.6500244140625</v>
+      </c>
+      <c r="H11" s="20">
+        <v>12066.5</v>
+      </c>
+      <c r="I11" s="8">
+        <v>701.6400146484375</v>
+      </c>
+      <c r="J11" s="15">
+        <v>0.1340000033378601</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="22">
         <f>SUM(totalOrder)</f>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" ht="35" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>26</v>
+    <row r="13">
+      <c r="A13" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>28</v>
+      <c r="A14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>31</v>
+      <c r="A15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="35" customHeight="1">
+      <c r="A16" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <headerFooter/>
   <drawing r:id="rId1"/>

--- a/Images/2.xlsx
+++ b/Images/2.xlsx
@@ -8,14 +8,14 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="totalOrder" localSheetId="0">Лист1!$H$7:$H$11</definedName>
+    <definedName name="totalOrder" localSheetId="0">Лист1!$H$7:$H$8</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">ООО ЛАЗЕРФЛЕКС  тел:(812)509-60-11</t>
   </si>
@@ -80,28 +80,16 @@
     <t>Mass</t>
   </si>
   <si>
-    <t>цинк</t>
-  </si>
-  <si>
-    <t>Л</t>
+    <t>ст3</t>
+  </si>
+  <si>
+    <t>Л + Г</t>
   </si>
   <si>
     <t>H14/h14 +-IT 14/2</t>
   </si>
   <si>
-    <t>240 мм заглушка квадратная цинк s1 n25</t>
-  </si>
-  <si>
-    <t>Л + С</t>
-  </si>
-  <si>
-    <t>200 мм заглушка квадратная цинк s1 n10</t>
-  </si>
-  <si>
-    <t>290 мм заглушка квадратная цинк s1 n5</t>
-  </si>
-  <si>
-    <t>Provent VLV монтажная пластина заслонки цинк s1 n10</t>
+    <t>Кронштейн Ст3 s8 (гиб) n120</t>
   </si>
   <si>
     <t>ИТОГО:</t>
@@ -134,13 +122,13 @@
     <t xml:space="preserve">Расшифровка работ: </t>
   </si>
   <si>
-    <t xml:space="preserve">Л - Лазер С - Сварка </t>
+    <t xml:space="preserve">Л - Лазер Г - Гибка </t>
   </si>
   <si>
     <t>Ваш менеджер:</t>
   </si>
   <si>
-    <t/>
+    <t>Сергеев Алексей</t>
   </si>
   <si>
     <t>версия: 1.0.0</t>
@@ -271,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -303,9 +291,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,9 +306,6 @@
     <xf numFmtId="0" fontId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" borderId="10" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" borderId="11" applyBorder="1"/>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="0" borderId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +382,7 @@
     <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="16.806575775146484" customWidth="1"/>
-    <col min="5" max="5" width="51.22453689575195" customWidth="1"/>
+    <col min="5" max="5" width="26.85409927368164" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="12.477986335754395" customWidth="1"/>
@@ -449,7 +431,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="7"/>
-      <c r="J6" s="13"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
@@ -479,7 +461,7 @@
       <c r="I7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>20</v>
       </c>
     </row>
@@ -487,193 +469,97 @@
       <c r="A8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
+        <v>120</v>
+      </c>
+      <c r="G8" s="18">
+        <v>279.94000244140625</v>
+      </c>
+      <c r="H8" s="18">
+        <v>33592.80078125</v>
+      </c>
+      <c r="I8" s="8">
+        <v>788.5</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1.2300000190734863</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="19">
-        <v>26.760000228881836</v>
-      </c>
-      <c r="H8" s="19">
-        <v>669</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1127.3499755859375</v>
-      </c>
-      <c r="J8" s="14">
-        <v>0.4509999752044678</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="20">
+        <f>SUM(totalOrder)</f>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="4">
-        <v>10</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1212.9599609375</v>
-      </c>
-      <c r="H9" s="19">
-        <v>12129.599609375</v>
-      </c>
-      <c r="I9" s="4">
-        <v>967.3499755859375</v>
-      </c>
-      <c r="J9" s="14">
-        <v>0.31199997663497925</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4">
-        <v>8</v>
-      </c>
-      <c r="G10" s="19">
-        <v>31.5</v>
-      </c>
-      <c r="H10" s="19">
-        <v>252</v>
-      </c>
-      <c r="I10" s="4">
-        <v>1327.3499755859375</v>
-      </c>
-      <c r="J10" s="14">
-        <v>0.6589999794960022</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="8" t="s">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="8">
-        <v>10</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1206.6500244140625</v>
-      </c>
-      <c r="H11" s="20">
-        <v>12066.5</v>
-      </c>
-      <c r="I11" s="8">
-        <v>701.6400146484375</v>
-      </c>
-      <c r="J11" s="15">
-        <v>0.1340000033378601</v>
+      <c r="B11" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="22">
-        <f>SUM(totalOrder)</f>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B12" s="0" t="s">
         <v>31</v>
       </c>
     </row>
+    <row r="13" ht="35" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="14">
-      <c r="A14" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>33</v>
+      <c r="A14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" ht="35" customHeight="1">
-      <c r="A16" s="23" t="s">
+      <c r="A15" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B15" s="15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0" t="s">
+      <c r="H15" s="23" t="s">
         <v>38</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -689,12 +575,12 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B14:E14"/>
   </mergeCells>
   <headerFooter/>
   <drawing r:id="rId1"/>
